--- a/.timesheet/TimeShift(1).xlsx
+++ b/.timesheet/TimeShift(1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pouria\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\.timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,10 +26,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>یکشنبه</t>
+    <t>1399/05/04</t>
   </si>
   <si>
-    <t>1399/05/04</t>
+    <t>شنبه</t>
   </si>
 </sst>
 </file>
@@ -362,10 +362,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
         <v>0.5</v>
